--- a/medicine/Bioéthique/Fœtus_humain/Fœtus_humain.xlsx
+++ b/medicine/Bioéthique/Fœtus_humain/Fœtus_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C5%93tus_humain</t>
+          <t>Fœtus_humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fœtus humain est le fœtus de l'espèce humaine, stade du développement prénatal qui succède à l'embryon et aboutit à la naissance.
-On considère que le stade fœtal débute à la fin de la 8e semaine de la grossesse[1]. L'organogénèse est alors quasiment terminée.
+On considère que le stade fœtal débute à la fin de la 8e semaine de la grossesse. L'organogénèse est alors quasiment terminée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C5%93tus_humain</t>
+          <t>Fœtus_humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,159 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chronologie utilisée ci-dessous décrit les changements spécifiques de l'anatomie et de la physiologie du fœtus « depuis la fécondation ». Cependant, les obstétriciens français datent souvent la grossesse en nombre de « semaines d'aménorrhée » (semaines avec absence de menstruations). Par convention, le début de la première semaine d'aménorrhée précède de deux semaines l'âge de fécondation (ou âge conceptionnel). Durant tout cet article, sauf mention contraire, nous mesurerons l'âge à partir de la fécondation, correspondant au début de la grossesse[2].
-8 semaines
-Le risque de perte du fœtus est fortement diminué au début de cette étape. À ce stade, toutes les structures majeures, incluant les mains, les pieds, la tête, le cerveau, et d'autres organes sont présents, mais ils continuent à se développer et deviennent de plus en plus fonctionnels[3]. Quand l'étape fœtale débute, un fœtus mesure environ 30 millimètres de long, et son cœur bat déjà. Le fœtus arrive à plier la tête, et effectue des mouvements qui impliquent tout le corps. Le cerveau montre des signes d'activité dès le 54e jour. Les sillons de l'épiderme responsable des empreintes apparaissent[4].
-8 à 15 semaines
-Le fœtus continue de se déplacer et bouge désormais plus précisément certains organes moteurs tels que les bras ou les jambes, des mouvements de hoquet, de respiration, d'étirement et de bâillement sont aussi observables. Ces simulacres de respirations sont importants et nécessaires au bon développement de ses poumons et remplissent ce rôle plutôt que d'apporter une quelconque quantité d'oxygène à ce stade-là. À partir de la 9e semaine le fœtus peut plier ses doigts autour d'un objet, plier les jambes ou encore courber les orteils en réponse à un contact sur le pied pour s'en éloigner. Le visage est bien formé et possède un aspect plus humain. Les paupières sont fermées et le resteront pendant plusieurs mois encore. La différenciation des organes génitaux mâle ou femelle devient prononcée. Des « bourgeons » de dents apparaissent, les membres ont continué de grandir et sont minces, de plus les globules rouges sont produits dans le foie. Des cheveux fins – appelés lanugo – apparaissent sur la tête. L'appareil gastro-intestinal forme le méconium, premières selles du fœtus. La peau du fœtus est pratiquement transparente. Les tissus musculaires et osseux se sont encore développés. Les premiers signes mesurables de l'activité électroencéphalographique se produisent durant la 12e semaine. À la fin de cette étape, le fœtus atteint environ la taille de 12 centimètres.
-16 à 25 semaines
-Le lanugo couvre entièrement le corps. Les sourcils, les cils et les ongles (des mains et des pieds) apparaissent. Le développement de ses muscles s'est accru, et des alvéoles (sacs d'air) se forment dans ses poumons. Le système nerveux est désormais suffisamment développé pour contrôler quelques fonctions du corps. Les cochlées sont maintenant développées, cependant les gaines de myéline dans la partie neurale du système auditif continueront de se développer jusqu'à dix-huit mois après la naissance. Le système respiratoire s'est développé à un point où il permet les échanges gazeux. L'accélération, les premiers mouvements fœtaux discernables par la mère sont souvent sentis durant cette période. Une femme enceinte pour la première fois (c'est-à-dire primipare) sent généralement les mouvements fœtaux aux alentours de la 18 et 19e semaine, alors qu'une femme ayant déjà eu un enfant sentira généralement les mouvements vers la 16e semaine. Vers la fin de ce cinquième mois, le fœtus mesure environ 20 centimètres.
-26 à 38 semaines
-La quantité de graisses corporelles augmente rapidement. Les poumons ne sont pas entièrement matures. Les connexions aux thalamus, qui gère les facteurs sensoriels, se forment. Les os sont complètement matures mais sont encore mous et flexibles. Le fer, le calcium et le phosphore deviennent plus abondant. On observe une activité électroencéphalographique continue à partir de la 30e semaine. Les ongles atteignent les extrémités des doigts. Le lanugo commence à disparaître excepté sur les bras et les épaules. Les bourgeons de sein sont présents. Les cheveux deviennent plus épais. La naissance est imminente et se produit autour de la 38e semaine. Le fœtus est considéré comme arrivé à son terme de développement entre la 35e et 39e semaine, ce qui signifie qu'on le considère apte à vivre en dehors de l'utérus. Il mesure généralement de 48 à 53 centimètres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chronologie utilisée ci-dessous décrit les changements spécifiques de l'anatomie et de la physiologie du fœtus « depuis la fécondation ». Cependant, les obstétriciens français datent souvent la grossesse en nombre de « semaines d'aménorrhée » (semaines avec absence de menstruations). Par convention, le début de la première semaine d'aménorrhée précède de deux semaines l'âge de fécondation (ou âge conceptionnel). Durant tout cet article, sauf mention contraire, nous mesurerons l'âge à partir de la fécondation, correspondant au début de la grossesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fœtus_humain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C5%93tus_humain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8 semaines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque de perte du fœtus est fortement diminué au début de cette étape. À ce stade, toutes les structures majeures, incluant les mains, les pieds, la tête, le cerveau, et d'autres organes sont présents, mais ils continuent à se développer et deviennent de plus en plus fonctionnels. Quand l'étape fœtale débute, un fœtus mesure environ 30 millimètres de long, et son cœur bat déjà. Le fœtus arrive à plier la tête, et effectue des mouvements qui impliquent tout le corps. Le cerveau montre des signes d'activité dès le 54e jour. Les sillons de l'épiderme responsable des empreintes apparaissent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fœtus_humain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C5%93tus_humain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8 à 15 semaines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fœtus continue de se déplacer et bouge désormais plus précisément certains organes moteurs tels que les bras ou les jambes, des mouvements de hoquet, de respiration, d'étirement et de bâillement sont aussi observables. Ces simulacres de respirations sont importants et nécessaires au bon développement de ses poumons et remplissent ce rôle plutôt que d'apporter une quelconque quantité d'oxygène à ce stade-là. À partir de la 9e semaine le fœtus peut plier ses doigts autour d'un objet, plier les jambes ou encore courber les orteils en réponse à un contact sur le pied pour s'en éloigner. Le visage est bien formé et possède un aspect plus humain. Les paupières sont fermées et le resteront pendant plusieurs mois encore. La différenciation des organes génitaux mâle ou femelle devient prononcée. Des « bourgeons » de dents apparaissent, les membres ont continué de grandir et sont minces, de plus les globules rouges sont produits dans le foie. Des cheveux fins – appelés lanugo – apparaissent sur la tête. L'appareil gastro-intestinal forme le méconium, premières selles du fœtus. La peau du fœtus est pratiquement transparente. Les tissus musculaires et osseux se sont encore développés. Les premiers signes mesurables de l'activité électroencéphalographique se produisent durant la 12e semaine. À la fin de cette étape, le fœtus atteint environ la taille de 12 centimètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fœtus_humain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C5%93tus_humain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16 à 25 semaines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lanugo couvre entièrement le corps. Les sourcils, les cils et les ongles (des mains et des pieds) apparaissent. Le développement de ses muscles s'est accru, et des alvéoles (sacs d'air) se forment dans ses poumons. Le système nerveux est désormais suffisamment développé pour contrôler quelques fonctions du corps. Les cochlées sont maintenant développées, cependant les gaines de myéline dans la partie neurale du système auditif continueront de se développer jusqu'à dix-huit mois après la naissance. Le système respiratoire s'est développé à un point où il permet les échanges gazeux. L'accélération, les premiers mouvements fœtaux discernables par la mère sont souvent sentis durant cette période. Une femme enceinte pour la première fois (c'est-à-dire primipare) sent généralement les mouvements fœtaux aux alentours de la 18 et 19e semaine, alors qu'une femme ayant déjà eu un enfant sentira généralement les mouvements vers la 16e semaine. Vers la fin de ce cinquième mois, le fœtus mesure environ 20 centimètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fœtus_humain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C5%93tus_humain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>26 à 38 semaines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La quantité de graisses corporelles augmente rapidement. Les poumons ne sont pas entièrement matures. Les connexions aux thalamus, qui gère les facteurs sensoriels, se forment. Les os sont complètement matures mais sont encore mous et flexibles. Le fer, le calcium et le phosphore deviennent plus abondant. On observe une activité électroencéphalographique continue à partir de la 30e semaine. Les ongles atteignent les extrémités des doigts. Le lanugo commence à disparaître excepté sur les bras et les épaules. Les bourgeons de sein sont présents. Les cheveux deviennent plus épais. La naissance est imminente et se produit autour de la 38e semaine. Le fœtus est considéré comme arrivé à son terme de développement entre la 35e et 39e semaine, ce qui signifie qu'on le considère apte à vivre en dehors de l'utérus. Il mesure généralement de 48 à 53 centimètres.
 </t>
         </is>
       </c>
